--- a/Documents/Book1 copy.xlsx
+++ b/Documents/Book1 copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashirm/Documents/GitHub/cbndtxopensource/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B7DF81-BD93-B74F-9AA0-BB1C00897D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE82E423-9B6C-CD40-B0D1-2957C1D4568D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12920" yWindow="-20280" windowWidth="27640" windowHeight="16540" xr2:uid="{BD01E4BF-D0EA-F443-A229-5AC03FD3B35B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="167">
   <si>
     <t>QUESTION</t>
   </si>
@@ -617,42 +617,6 @@
   </si>
   <si>
     <t>Are there penalties for FSP that do not comply or violate the guidelines? </t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>What is the current inflation rate</t>
-  </si>
-  <si>
-    <t>What is the current USD rate?</t>
-  </si>
-  <si>
-    <t>What is the current MPR rate?</t>
-  </si>
-  <si>
-    <t>What is the today's crude oil price?</t>
-  </si>
-  <si>
-    <t>What is ERP</t>
-  </si>
-  <si>
-    <t>What is RTGS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Enterprise Resource Planning.</t>
-  </si>
-  <si>
-    <t>It is an acronym for TEMENOS T24</t>
-  </si>
-  <si>
-    <t>RTGS is an acronym for Real Time Gross Settlement.</t>
-  </si>
-  <si>
-    <t>Check  CBN Website</t>
-  </si>
-  <si>
-    <t>What is T24</t>
   </si>
 </sst>
 </file>
@@ -721,7 +685,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,12 +722,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -792,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -841,9 +799,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D99C43-2997-1045-8DB4-DAB69020BC36}">
-  <dimension ref="A1:C176"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C8" sqref="A2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1184,476 +1139,476 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>167</v>
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="52" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>167</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>167</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="307" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="35" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>167</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>167</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>167</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="86" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>167</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="16" customFormat="1" ht="86" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="306" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="323" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="187" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="323" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="272" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="170" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="153" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="153" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>33</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="204" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" s="13" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" s="13" customFormat="1" ht="69" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A45" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1661,76 +1616,76 @@
         <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1738,21 +1693,21 @@
         <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1760,21 +1715,21 @@
         <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1782,21 +1737,21 @@
         <v>117</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1804,10 +1759,10 @@
         <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1815,21 +1770,21 @@
         <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -1837,131 +1792,131 @@
         <v>117</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="68" x14ac:dyDescent="0.2">
@@ -1969,43 +1924,43 @@
         <v>117</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2013,21 +1968,21 @@
         <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="85" x14ac:dyDescent="0.2">
@@ -2035,65 +1990,65 @@
         <v>117</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A81" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="51" x14ac:dyDescent="0.2">
@@ -2101,88 +2056,46 @@
         <v>117</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A89" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A90" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A92" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A93" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="1" t="s">
         <v>114</v>
       </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="14"/>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="14"/>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="14"/>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
@@ -2266,37 +2179,37 @@
     </row>
     <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
-      <c r="B110" s="4"/>
+      <c r="B110" s="5"/>
       <c r="C110" s="14"/>
     </row>
     <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="4"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="14"/>
     </row>
     <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
-      <c r="B112" s="4"/>
+      <c r="B112" s="5"/>
       <c r="C112" s="14"/>
     </row>
     <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
-      <c r="B113" s="4"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="14"/>
     </row>
     <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
-      <c r="B114" s="4"/>
+      <c r="B114" s="5"/>
       <c r="C114" s="14"/>
     </row>
     <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="5"/>
       <c r="C115" s="14"/>
     </row>
     <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
-      <c r="B116" s="4"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="14"/>
     </row>
     <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2411,7 +2324,7 @@
     </row>
     <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
-      <c r="B139" s="5"/>
+      <c r="B139" s="6"/>
       <c r="C139" s="14"/>
     </row>
     <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2446,7 +2359,7 @@
     </row>
     <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
-      <c r="B146" s="6"/>
+      <c r="B146" s="5"/>
       <c r="C146" s="14"/>
     </row>
     <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2471,17 +2384,17 @@
     </row>
     <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
-      <c r="B151" s="5"/>
+      <c r="B151" s="6"/>
       <c r="C151" s="14"/>
     </row>
     <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
-      <c r="B152" s="5"/>
+      <c r="B152" s="6"/>
       <c r="C152" s="14"/>
     </row>
     <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="5"/>
+      <c r="B153" s="6"/>
       <c r="C153" s="14"/>
     </row>
     <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2501,7 +2414,7 @@
     </row>
     <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
-      <c r="B157" s="5"/>
+      <c r="B157" s="6"/>
       <c r="C157" s="14"/>
     </row>
     <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2511,12 +2424,12 @@
     </row>
     <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
-      <c r="B159" s="6"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="14"/>
     </row>
     <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
-      <c r="B160" s="6"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="14"/>
     </row>
     <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.2">
@@ -2536,68 +2449,33 @@
     </row>
     <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
-      <c r="B164" s="6"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="14"/>
     </row>
     <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
-      <c r="B165" s="6"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
-      <c r="B166" s="5"/>
+      <c r="B166" s="6"/>
       <c r="C166" s="14"/>
     </row>
     <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
-      <c r="B167" s="5"/>
+      <c r="B167" s="6"/>
       <c r="C167" s="14"/>
     </row>
     <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
-      <c r="B168" s="5"/>
+      <c r="B168" s="7"/>
       <c r="C168" s="14"/>
     </row>
     <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
-      <c r="B169" s="5"/>
+      <c r="B169" s="7"/>
       <c r="C169" s="14"/>
-    </row>
-    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="14"/>
-    </row>
-    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="5"/>
-      <c r="C171" s="14"/>
-    </row>
-    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="5"/>
-      <c r="C172" s="14"/>
-    </row>
-    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="14"/>
-    </row>
-    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="14"/>
-    </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A175" s="3"/>
-      <c r="B175" s="7"/>
-      <c r="C175" s="14"/>
-    </row>
-    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A176" s="3"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
